--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.4334</v>
+        <v>-12.3174</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.694100000000007</v>
+        <v>-7.596300000000005</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.0824</v>
+        <v>-22.22470000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.515299999999995</v>
+        <v>-8.523599999999995</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.66329999999999</v>
+        <v>-21.67759999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.9264</v>
+        <v>-13.1931</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.30080000000002</v>
+        <v>-21.67439999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.00839999999999</v>
+        <v>-12.91300000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.249299999999995</v>
+        <v>-8.929800000000004</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.822199999999988</v>
+        <v>-8.854399999999988</v>
       </c>
     </row>
     <row r="14">
@@ -645,10 +645,10 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.47579999999999</v>
+        <v>-14.3475</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.399999999999999</v>
+        <v>-8.346299999999998</v>
       </c>
     </row>
     <row r="16">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.4502</v>
+        <v>-13.3822</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.19590000000001</v>
+        <v>-22.25590000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.020099999999996</v>
+        <v>-7.818799999999991</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.70410000000001</v>
+        <v>-21.7685</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.530199999999995</v>
+        <v>-7.699199999999996</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.69440000000001</v>
+        <v>-12.47510000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.4974</v>
+        <v>-13.37569999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.625</v>
+        <v>-13.67519999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.45520000000001</v>
+        <v>-13.07270000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.847300000000004</v>
+        <v>-8.913100000000004</v>
       </c>
     </row>
     <row r="33">
@@ -942,18 +942,18 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.483100000000003</v>
+        <v>-7.504299999999996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.86069999999998</v>
+        <v>-19.60649999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.76069999999999</v>
+        <v>-12.97100000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.562399999999996</v>
+        <v>-8.056099999999997</v>
       </c>
     </row>
     <row r="39">
@@ -1009,10 +1009,10 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.68240000000001</v>
+        <v>-12.5754</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.229099999999999</v>
+        <v>-8.316000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.0226</v>
+        <v>-12.8614</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.080499999999994</v>
+        <v>-7.751899999999998</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.30179999999999</v>
+        <v>-12.084</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.021000000000001</v>
+        <v>-7.883799999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.03459999999999</v>
+        <v>-22.20979999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.422499999999996</v>
+        <v>-8.478700000000002</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.3966</v>
+        <v>-12.10919999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.203799999999993</v>
+        <v>-7.224499999999994</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.46539999999999</v>
+        <v>-21.46349999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.90260000000001</v>
+        <v>-11.78390000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.71519999999998</v>
+        <v>-19.70959999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.98729999999998</v>
+        <v>-19.68809999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.84479999999999</v>
+        <v>-19.74319999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.4139</v>
+        <v>-19.7505</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.87810000000002</v>
+        <v>-22.00790000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.89090000000002</v>
+        <v>-21.91530000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.13150000000001</v>
+        <v>-21.98129999999999</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.65039999999999</v>
+        <v>-13.22789999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.178999999999995</v>
+        <v>-7.971999999999993</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.3354</v>
+        <v>-13.6317</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.297799999999997</v>
+        <v>-8.138299999999997</v>
       </c>
     </row>
     <row r="87">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.767799999999997</v>
+        <v>-7.718199999999999</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.0982</v>
+        <v>-13.8058</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.107899999999997</v>
+        <v>-8.089899999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3876</v>
+        <v>-10.3632</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-13.17329999999999</v>
+        <v>-13.14519999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.735999999999997</v>
+        <v>-7.742399999999996</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.39480000000001</v>
+        <v>-13.02140000000001</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.06900000000001</v>
+        <v>-12.0073</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.60409999999997</v>
+        <v>-20.46159999999998</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.6067</v>
+        <v>-12.26990000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.58799999999998</v>
+        <v>-20.55409999999998</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.4599</v>
+        <v>-12.0853</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.420900000000003</v>
+        <v>-8.157400000000006</v>
       </c>
     </row>
   </sheetData>
